--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s2_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.8168650130948</v>
+        <v>614.3672915212159</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.63686501310219</v>
+        <v>58.36729152121585</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.8899999999925</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321.29</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.90817943749184</v>
+        <v>17.72653447714341</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.951347612056605</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67685125555194</v>
+        <v>11.66522345830436</v>
       </c>
     </row>
     <row r="8">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.1193218578532</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>26.1193218578532</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>73.88999999999919</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>67.71999999999922</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>63.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>71.60499999999919</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.36999999999921</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>120.5099999999993</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>109.1949999999989</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>101.1749999999988</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>111.2599999999991</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>119.1299999999988</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>104.4450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>101.6750000000006</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>103.7150000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5350000000006</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>106.1700000000004</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>112.4900000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>102.5700000000004</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>110.05</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>107.6750000000004</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>120.509999999999</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>109.1949999999984</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>101.1749999999982</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>111.2599999999987</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>119.1299999999982</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.44500000000059</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.67500000000058</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.715000000000586</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.535000000000579</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.170000000000372</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.49000000000036</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.57000000000037</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.05</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.675000000000359</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>20.50999999999897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.194999999998402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1.174999999998178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.2599999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>19.12999999999819</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2154,67 +2154,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
